--- a/src/analysis_examples/circadb/results_lomb/cosinor_10426098_creld2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10426098_creld2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24568331893873008, 0.3762271916979918]</t>
+          <t>[0.24653784218701297, 0.3753726684497089]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.280156508049913e-09</v>
+        <v>1.810647187738823e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.280156508049913e-09</v>
+        <v>1.810647187738823e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.622684493746079</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.34180907156705936, 0.4255744015952286]</t>
+          <t>[0.3418091720308926, 0.4255743011313953]</t>
         </is>
       </c>
       <c r="U2" t="n">
